--- a/Assets/Test/EditorTool/ExcelToFlatBufferWindow/Excel/TestTemplate.xlsx
+++ b/Assets/Test/EditorTool/ExcelToFlatBufferWindow/Excel/TestTemplate.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>攻击力</t>
+    <t>男性</t>
   </si>
   <si>
     <t>技能</t>
@@ -31,13 +31,22 @@
     <t>技能描述</t>
   </si>
   <si>
-    <t>升级所消耗的材料</t>
-  </si>
-  <si>
-    <t>升星所消耗的材料</t>
-  </si>
-  <si>
-    <t>attack</t>
+    <t>自定义数据类型1</t>
+  </si>
+  <si>
+    <t>自定义数据类型2</t>
+  </si>
+  <si>
+    <t>自定义数据类型3</t>
+  </si>
+  <si>
+    <t>自定义数据类型4</t>
+  </si>
+  <si>
+    <t>自定义数据类型5</t>
+  </si>
+  <si>
+    <t>isMen</t>
   </si>
   <si>
     <t>skills</t>
@@ -49,325 +58,526 @@
     <t>skillsDes</t>
   </si>
   <si>
-    <t>CostLevel</t>
-  </si>
-  <si>
-    <t>CostStart</t>
+    <t>customDataType1</t>
+  </si>
+  <si>
+    <t>customDataType2</t>
+  </si>
+  <si>
+    <t>customDataType3</t>
+  </si>
+  <si>
+    <t>customDataType4</t>
+  </si>
+  <si>
+    <t>customDataType5</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>[int]</t>
   </si>
   <si>
     <t>[string]</t>
   </si>
   <si>
-    <t>Prop</t>
-  </si>
-  <si>
-    <t>[Prop]</t>
-  </si>
-  <si>
-    <t>86,51,29,48</t>
-  </si>
-  <si>
-    <t>76，76，81，56</t>
-  </si>
-  <si>
-    <t>des54:des89:des62:des25</t>
-  </si>
-  <si>
-    <t>{54,16}</t>
-  </si>
-  <si>
-    <t>{71,15},{30,12}</t>
-  </si>
-  <si>
-    <t>34,23,59,59</t>
-  </si>
-  <si>
-    <t>79，44，93，56</t>
-  </si>
-  <si>
-    <t>des62:des92:des78:des92</t>
-  </si>
-  <si>
-    <t>{46,62}</t>
-  </si>
-  <si>
-    <t>{17,70},{27,83}</t>
-  </si>
-  <si>
-    <t>32,14,64,28</t>
-  </si>
-  <si>
-    <t>22，26，28，92</t>
-  </si>
-  <si>
-    <t>des16:des98:des97:des77</t>
-  </si>
-  <si>
-    <t>{34,85}</t>
-  </si>
-  <si>
-    <t>{90,13},{43,99}</t>
-  </si>
-  <si>
-    <t>81,95,30,97</t>
-  </si>
-  <si>
-    <t>77，15，77，27</t>
-  </si>
-  <si>
-    <t>des23:des38:des89:des48</t>
-  </si>
-  <si>
-    <t>{20,51}</t>
-  </si>
-  <si>
-    <t>{74,30},{82,95},{23,76}</t>
-  </si>
-  <si>
-    <t>48,65,67,84</t>
-  </si>
-  <si>
-    <t>39，11，21，77</t>
-  </si>
-  <si>
-    <t>des75:des92:des44:des89</t>
-  </si>
-  <si>
-    <t>{98,85}</t>
-  </si>
-  <si>
-    <t>{25,59},{85,22}</t>
-  </si>
-  <si>
-    <t>56,48,58,59</t>
-  </si>
-  <si>
-    <t>34，49，35，50</t>
-  </si>
-  <si>
-    <t>des19:des67:des65:des68</t>
-  </si>
-  <si>
-    <t>{63,90}</t>
-  </si>
-  <si>
-    <t>{30,20},{52,52}</t>
-  </si>
-  <si>
-    <t>46,28,47,88</t>
-  </si>
-  <si>
-    <t>11，24，61，59</t>
-  </si>
-  <si>
-    <t>des94:des28:des38:des67</t>
-  </si>
-  <si>
-    <t>{54,77}</t>
-  </si>
-  <si>
-    <t>{20,25},{71,84},{62,55}</t>
-  </si>
-  <si>
-    <t>11,84,50,74</t>
-  </si>
-  <si>
-    <t>44，77，37，54</t>
-  </si>
-  <si>
-    <t>des56:des16:des23:des87</t>
-  </si>
-  <si>
-    <t>{97,55}</t>
-  </si>
-  <si>
-    <t>{46,89},{17,31}</t>
-  </si>
-  <si>
-    <t>84,25,74,95</t>
-  </si>
-  <si>
-    <t>27，66，86，16</t>
-  </si>
-  <si>
-    <t>des21:des87:des45:des36</t>
-  </si>
-  <si>
-    <t>{41,34}</t>
-  </si>
-  <si>
-    <t>{90,52},{54,86}</t>
-  </si>
-  <si>
-    <t>49,79,68,16</t>
-  </si>
-  <si>
-    <t>77，88，84，81</t>
-  </si>
-  <si>
-    <t>des30:des55:des21:des47</t>
-  </si>
-  <si>
-    <t>{53,64}</t>
-  </si>
-  <si>
-    <t>{87,81},{52,85},{81,25}</t>
-  </si>
-  <si>
-    <t>66,22,83,70</t>
-  </si>
-  <si>
-    <t>86，96，94，26</t>
-  </si>
-  <si>
-    <t>des71:des41:des34:des47</t>
-  </si>
-  <si>
-    <t>{60,55}</t>
-  </si>
-  <si>
-    <t>{82,70},{74,91},{16,65}</t>
-  </si>
-  <si>
-    <t>78,63,15,73</t>
-  </si>
-  <si>
-    <t>71，81，74，32</t>
-  </si>
-  <si>
-    <t>des47:des56:des87:des15</t>
-  </si>
-  <si>
-    <t>{34,11}</t>
-  </si>
-  <si>
-    <t>{64,94},{38,64}</t>
-  </si>
-  <si>
-    <t>76,29,27,40</t>
-  </si>
-  <si>
-    <t>18，69，71，90</t>
-  </si>
-  <si>
-    <t>des80:des46:des71:des39</t>
-  </si>
-  <si>
-    <t>{55,80}</t>
-  </si>
-  <si>
-    <t>{20,26},{25,92}</t>
-  </si>
-  <si>
-    <t>64,13,64,76</t>
-  </si>
-  <si>
-    <t>95，69，11，31</t>
-  </si>
-  <si>
-    <t>des89:des61:des41:des34</t>
-  </si>
-  <si>
-    <t>{13,94}</t>
-  </si>
-  <si>
-    <t>{99,57},{59,50}</t>
-  </si>
-  <si>
-    <t>88,45,47,20</t>
-  </si>
-  <si>
-    <t>73，73，47，22</t>
-  </si>
-  <si>
-    <t>des38:des20:des14:des12</t>
-  </si>
-  <si>
-    <t>{59,55}</t>
-  </si>
-  <si>
-    <t>{12,85},{37,25}</t>
-  </si>
-  <si>
-    <t>57,67,98,42</t>
-  </si>
-  <si>
-    <t>67，79，42，26</t>
-  </si>
-  <si>
-    <t>des41:des49:des20:des58</t>
-  </si>
-  <si>
-    <t>{77,26}</t>
-  </si>
-  <si>
-    <t>{55,90},{55,79},{37,57}</t>
-  </si>
-  <si>
-    <t>90,85,41,81</t>
-  </si>
-  <si>
-    <t>92，91，69，74</t>
-  </si>
-  <si>
-    <t>des97:des66:des80:des74</t>
-  </si>
-  <si>
-    <t>{12,53}</t>
-  </si>
-  <si>
-    <t>{12,14},{48,96}</t>
-  </si>
-  <si>
-    <t>64,66,82,37</t>
-  </si>
-  <si>
-    <t>24，28，17，68</t>
-  </si>
-  <si>
-    <t>des60:des30:des88:des67</t>
-  </si>
-  <si>
-    <t>{26,41}</t>
-  </si>
-  <si>
-    <t>{75,37},{37,91},{50,88}</t>
-  </si>
-  <si>
-    <t>84,20,87,32</t>
-  </si>
-  <si>
-    <t>41，87，42，55</t>
-  </si>
-  <si>
-    <t>des28:des92:des85:des30</t>
-  </si>
-  <si>
-    <t>{53,94}</t>
-  </si>
-  <si>
-    <t>{91,27},{47,20},{74,69}</t>
-  </si>
-  <si>
-    <t>66,62,30,11</t>
-  </si>
-  <si>
-    <t>63，23，15，19</t>
-  </si>
-  <si>
-    <t>des36:des29:des48:des65</t>
-  </si>
-  <si>
-    <t>{38,23}</t>
-  </si>
-  <si>
-    <t>{30,76},{24,99},{43,49}</t>
+    <t>DictIntInt</t>
+  </si>
+  <si>
+    <t>[DictIntString]</t>
+  </si>
+  <si>
+    <t>[DictStringString]</t>
+  </si>
+  <si>
+    <t>Vector3</t>
+  </si>
+  <si>
+    <t>[Vector2]</t>
+  </si>
+  <si>
+    <t>76,27,75,81</t>
+  </si>
+  <si>
+    <t>52，86，85，72</t>
+  </si>
+  <si>
+    <t>des41:des21:des43:des54</t>
+  </si>
+  <si>
+    <t>{66,45}</t>
+  </si>
+  <si>
+    <t>{19,"62"},{60,"91"},{94,"63"}</t>
+  </si>
+  <si>
+    <t>{"23","91"},{"38","8"}</t>
+  </si>
+  <si>
+    <t>{ 2.3,0.8,6.7 }</t>
+  </si>
+  <si>
+    <t>{ 6.5,5.9 },{ 7.5,2.7 },{ 8.8,5.0 }</t>
+  </si>
+  <si>
+    <t>14,75,69,53</t>
+  </si>
+  <si>
+    <t>14，62，19，96</t>
+  </si>
+  <si>
+    <t>des60:des43:des24:des55</t>
+  </si>
+  <si>
+    <t>{82,73}</t>
+  </si>
+  <si>
+    <t>{72,"12"},{8,"66"}</t>
+  </si>
+  <si>
+    <t>{"63","10"},{"94","2"},{"96","76"}</t>
+  </si>
+  <si>
+    <t>{ 8.5,6.1,1.5 }</t>
+  </si>
+  <si>
+    <t>{ 8.2,3.4 },{ 7.5,6.4 },{ 3.2,5.2 }</t>
+  </si>
+  <si>
+    <t>77,14,95,97</t>
+  </si>
+  <si>
+    <t>12，53，91，54</t>
+  </si>
+  <si>
+    <t>des12:des37:des42:des18</t>
+  </si>
+  <si>
+    <t>{8,27}</t>
+  </si>
+  <si>
+    <t>{9,"78"},{19,"43"},{3,"74"}</t>
+  </si>
+  <si>
+    <t>{"57","25"},{"50","7"}</t>
+  </si>
+  <si>
+    <t>{ 1.4,2.2,2.2 }</t>
+  </si>
+  <si>
+    <t>{ 6.2,8.0 },{ 4.9,7.0 },{ 0.5,2.5 }</t>
+  </si>
+  <si>
+    <t>90,12,25,97</t>
+  </si>
+  <si>
+    <t>10，16，63，18</t>
+  </si>
+  <si>
+    <t>des39:des35:des29:des67</t>
+  </si>
+  <si>
+    <t>{53,93}</t>
+  </si>
+  <si>
+    <t>{93,"5"},{36,"82"},{80,"59"}</t>
+  </si>
+  <si>
+    <t>{"70","25"},{"13","34"},{"66","67"}</t>
+  </si>
+  <si>
+    <t>{ 0.7,5.4,0.3 }</t>
+  </si>
+  <si>
+    <t>{ 7.3,8.4 },{ 3.6,8.8 },{ 1.0,6.9 }</t>
+  </si>
+  <si>
+    <t>36,87,61,27</t>
+  </si>
+  <si>
+    <t>36，29，41，34</t>
+  </si>
+  <si>
+    <t>des38:des97:des89:des72</t>
+  </si>
+  <si>
+    <t>{72,84}</t>
+  </si>
+  <si>
+    <t>{39,"77"},{60,"90"}</t>
+  </si>
+  <si>
+    <t>{"64","90"},{"87","99"}</t>
+  </si>
+  <si>
+    <t>{ 0.5,4.9,2.4 }</t>
+  </si>
+  <si>
+    <t>{ 7.0,3.3 },{ 5.9,8.6 },{ 3.6,7.5 }</t>
+  </si>
+  <si>
+    <t>27,68,80,57</t>
+  </si>
+  <si>
+    <t>98，80，30，84</t>
+  </si>
+  <si>
+    <t>des82:des86:des25:des46</t>
+  </si>
+  <si>
+    <t>{19,93}</t>
+  </si>
+  <si>
+    <t>{25,"51"},{65,"30"},{31,"47"}</t>
+  </si>
+  <si>
+    <t>{"62","6"},{"55","52"}</t>
+  </si>
+  <si>
+    <t>{ 6.8,8.6,7.7 }</t>
+  </si>
+  <si>
+    <t>{ 6.7,9.0 },{ 1.8,3.4 },{ 6.9,0.9 }</t>
+  </si>
+  <si>
+    <t>69,61,43,25</t>
+  </si>
+  <si>
+    <t>98，93，41，97</t>
+  </si>
+  <si>
+    <t>des54:des19:des11:des73</t>
+  </si>
+  <si>
+    <t>{70,95}</t>
+  </si>
+  <si>
+    <t>{32,"66"},{81,"79"}</t>
+  </si>
+  <si>
+    <t>{"25","6"},{"65","3"},{"22","81"}</t>
+  </si>
+  <si>
+    <t>{ 4.3,7.0,4.9 }</t>
+  </si>
+  <si>
+    <t>{ 2.4,6.6 },{ 1.9,0.4 }</t>
+  </si>
+  <si>
+    <t>26,18,23,65</t>
+  </si>
+  <si>
+    <t>21，26，49，82</t>
+  </si>
+  <si>
+    <t>des50:des76:des43:des28</t>
+  </si>
+  <si>
+    <t>{45,47}</t>
+  </si>
+  <si>
+    <t>{39,"95"},{22,"53"}</t>
+  </si>
+  <si>
+    <t>{"54","19"},{"19","18"}</t>
+  </si>
+  <si>
+    <t>{ 5.5,0.0,2.1 }</t>
+  </si>
+  <si>
+    <t>{ 7.4,5.3 },{ 7.9,1.7 }</t>
+  </si>
+  <si>
+    <t>31,44,81,15</t>
+  </si>
+  <si>
+    <t>30，23，87，79</t>
+  </si>
+  <si>
+    <t>des86:des27:des56:des88</t>
+  </si>
+  <si>
+    <t>{11,6}</t>
+  </si>
+  <si>
+    <t>{27,"40"},{77,"56"}</t>
+  </si>
+  <si>
+    <t>{"72","93"},{"90","20"}</t>
+  </si>
+  <si>
+    <t>{ 4.2,8.9,1.7 }</t>
+  </si>
+  <si>
+    <t>{ 3.5,1.6 },{ 0.9,6.0 },{ 8.2,6.1 }</t>
+  </si>
+  <si>
+    <t>51,36,70,59</t>
+  </si>
+  <si>
+    <t>85，33，93，48</t>
+  </si>
+  <si>
+    <t>des31:des15:des29:des25</t>
+  </si>
+  <si>
+    <t>{23,71}</t>
+  </si>
+  <si>
+    <t>{10,"15"},{49,"31"},{51,"56"}</t>
+  </si>
+  <si>
+    <t>{"58","89"},{"28","51"},{"99","74"}</t>
+  </si>
+  <si>
+    <t>{ 2.5,7.2,5.0 }</t>
+  </si>
+  <si>
+    <t>{ 3.1,0.6 },{ 3.0,3.4 },{ 8.7,3.6 }</t>
+  </si>
+  <si>
+    <t>65,84,96,81</t>
+  </si>
+  <si>
+    <t>60，10，70，45</t>
+  </si>
+  <si>
+    <t>des92:des34:des18:des77</t>
+  </si>
+  <si>
+    <t>{21,61}</t>
+  </si>
+  <si>
+    <t>{53,"58"},{74,"63"},{54,"37"}</t>
+  </si>
+  <si>
+    <t>{"39","70"},{"26","41"},{"42","38"}</t>
+  </si>
+  <si>
+    <t>{ 8.8,2.2,5.7 }</t>
+  </si>
+  <si>
+    <t>{ 6.1,7.0 },{ 8.0,8.0 }</t>
+  </si>
+  <si>
+    <t>86,35,65,11</t>
+  </si>
+  <si>
+    <t>37，41，39，78</t>
+  </si>
+  <si>
+    <t>des76:des86:des82:des32</t>
+  </si>
+  <si>
+    <t>{15,69}</t>
+  </si>
+  <si>
+    <t>{57,"2"},{43,"20"}</t>
+  </si>
+  <si>
+    <t>{"28","63"},{"21","90"},{"75","62"}</t>
+  </si>
+  <si>
+    <t>{ 4.9,4.8,8.8 }</t>
+  </si>
+  <si>
+    <t>{ 6.4,1.4 },{ 2.6,5.2 }</t>
+  </si>
+  <si>
+    <t>30,64,97,76</t>
+  </si>
+  <si>
+    <t>57，86，43，51</t>
+  </si>
+  <si>
+    <t>des61:des88:des48:des89</t>
+  </si>
+  <si>
+    <t>{81,63}</t>
+  </si>
+  <si>
+    <t>{3,"85"},{16,"27"},{57,"31"}</t>
+  </si>
+  <si>
+    <t>{"66","64"},{"28","29"}</t>
+  </si>
+  <si>
+    <t>{ 8.3,7.0,3.6 }</t>
+  </si>
+  <si>
+    <t>{ 4.4,7.0 },{ 7.7,0.3 },{ 4.9,7.5 }</t>
+  </si>
+  <si>
+    <t>31,54,46,81</t>
+  </si>
+  <si>
+    <t>20，20，86，94</t>
+  </si>
+  <si>
+    <t>des71:des46:des61:des78</t>
+  </si>
+  <si>
+    <t>{80,84}</t>
+  </si>
+  <si>
+    <t>{99,"18"},{2,"35"}</t>
+  </si>
+  <si>
+    <t>{"93","32"},{"7","3"}</t>
+  </si>
+  <si>
+    <t>{ 7.9,6.7,5.1 }</t>
+  </si>
+  <si>
+    <t>{ 7.9,5.9 },{ 4.6,5.1 },{ 2.6,8.3 }</t>
+  </si>
+  <si>
+    <t>95,52,75,55</t>
+  </si>
+  <si>
+    <t>66，28，40，14</t>
+  </si>
+  <si>
+    <t>des28:des60:des99:des80</t>
+  </si>
+  <si>
+    <t>{60,78}</t>
+  </si>
+  <si>
+    <t>{41,"20"},{87,"22"},{50,"93"}</t>
+  </si>
+  <si>
+    <t>{"73","39"},{"13","52"}</t>
+  </si>
+  <si>
+    <t>{ 2.3,5.2,1.9 }</t>
+  </si>
+  <si>
+    <t>{ 8.1,4.8 },{ 0.8,6.0 },{ 6.8,3.4 }</t>
+  </si>
+  <si>
+    <t>66,33,93,74</t>
+  </si>
+  <si>
+    <t>68，35，10，78</t>
+  </si>
+  <si>
+    <t>des81:des59:des36:des31</t>
+  </si>
+  <si>
+    <t>{6,96}</t>
+  </si>
+  <si>
+    <t>{23,"86"},{32,"19"}</t>
+  </si>
+  <si>
+    <t>{"33","44"},{"45","32"}</t>
+  </si>
+  <si>
+    <t>{ 5.5,1.8,8.9 }</t>
+  </si>
+  <si>
+    <t>{ 6.0,9.0 },{ 6.8,6.6 }</t>
+  </si>
+  <si>
+    <t>91,98,43,47</t>
+  </si>
+  <si>
+    <t>29，14，80，75</t>
+  </si>
+  <si>
+    <t>des66:des36:des27:des37</t>
+  </si>
+  <si>
+    <t>{64,14}</t>
+  </si>
+  <si>
+    <t>{4,"83"},{4,"27"}</t>
+  </si>
+  <si>
+    <t>{"83","76"},{"66","54"},{"76","96"}</t>
+  </si>
+  <si>
+    <t>{ 0.9,6.8,1.8 }</t>
+  </si>
+  <si>
+    <t>{ 4.2,7.1 },{ 5.1,1.5 },{ 0.1,2.3 }</t>
+  </si>
+  <si>
+    <t>36,24,43,49</t>
+  </si>
+  <si>
+    <t>28，78，46，67</t>
+  </si>
+  <si>
+    <t>des76:des27:des72:des18</t>
+  </si>
+  <si>
+    <t>{55,98}</t>
+  </si>
+  <si>
+    <t>{43,"16"},{87,"40"}</t>
+  </si>
+  <si>
+    <t>{"39","28"},{"16","23"}</t>
+  </si>
+  <si>
+    <t>{ 8.0,0.3,3.6 }</t>
+  </si>
+  <si>
+    <t>{ 6.2,0.0 },{ 7.4,1.5 }</t>
+  </si>
+  <si>
+    <t>15,16,12,92</t>
+  </si>
+  <si>
+    <t>40，82，48，70</t>
+  </si>
+  <si>
+    <t>des67:des20:des86:des27</t>
+  </si>
+  <si>
+    <t>{9,39}</t>
+  </si>
+  <si>
+    <t>{65,"45"},{47,"7"}</t>
+  </si>
+  <si>
+    <t>{"41","25"},{"56","70"},{"59","40"}</t>
+  </si>
+  <si>
+    <t>{ 2.7,9.0,0.4 }</t>
+  </si>
+  <si>
+    <t>{ 0.9,4.5 },{ 3.9,6.9 }</t>
+  </si>
+  <si>
+    <t>47,24,56,73</t>
+  </si>
+  <si>
+    <t>99，19，76，10</t>
+  </si>
+  <si>
+    <t>des98:des55:des17:des81</t>
+  </si>
+  <si>
+    <t>{56,46}</t>
+  </si>
+  <si>
+    <t>{80,"76"},{85,"27"},{16,"56"}</t>
+  </si>
+  <si>
+    <t>{"93","93"},{"90","8"}</t>
+  </si>
+  <si>
+    <t>{ 3.1,4.6,0.0 }</t>
+  </si>
+  <si>
+    <t>{ 3.3,1.0 },{ 4.8,8.0 }</t>
   </si>
   <si>
     <t>#end关键字约定为结束符，此表及以后所有表会被忽略掉，不会打成其他二进制文件</t>
@@ -416,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A4:G17"/>
+  <dimension ref="A4:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,8 +637,11 @@
     <col min="3" max="3" width="11.7763497488839" customWidth="1"/>
     <col min="4" max="4" width="17.2818069458008" customWidth="1"/>
     <col min="5" max="5" width="24.1001935686384" customWidth="1"/>
-    <col min="6" max="6" width="20.4001094273158" customWidth="1"/>
-    <col min="7" max="7" width="21.2969948904855" customWidth="1"/>
+    <col min="6" max="6" width="19.1202545166016" customWidth="1"/>
+    <col min="7" max="7" width="26.4900752476283" customWidth="1"/>
+    <col min="8" max="8" width="31.6831556047712" customWidth="1"/>
+    <col min="9" max="9" width="19.1202545166016" customWidth="1"/>
+    <col min="10" max="10" width="27.4967716761998" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4">
@@ -453,281 +666,398 @@
       <c r="G4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
         <v>10001008</v>
       </c>
-      <c r="B8" s="0">
-        <v>99</v>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
         <v>10001009</v>
       </c>
-      <c r="B9" s="0">
-        <v>651</v>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>10001010</v>
       </c>
-      <c r="B10" s="0">
-        <v>72</v>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
         <v>10001011</v>
       </c>
-      <c r="B11" s="0">
-        <v>371</v>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
         <v>10001012</v>
       </c>
-      <c r="B12" s="0">
-        <v>100</v>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
         <v>10001013</v>
       </c>
-      <c r="B13" s="0">
-        <v>867</v>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>47</v>
+        <v>72</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
         <v>10001014</v>
       </c>
-      <c r="B14" s="0">
-        <v>758</v>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
         <v>10001015</v>
       </c>
-      <c r="B15" s="0">
-        <v>787</v>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
         <v>10001016</v>
       </c>
-      <c r="B16" s="0">
-        <v>644</v>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>62</v>
+        <v>96</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
         <v>10001017</v>
       </c>
-      <c r="B17" s="0">
-        <v>43</v>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>67</v>
+        <v>104</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A4:G17"/>
+  <dimension ref="A4:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -748,8 +1078,11 @@
     <col min="3" max="3" width="11.7763497488839" customWidth="1"/>
     <col min="4" max="4" width="17.2818069458008" customWidth="1"/>
     <col min="5" max="5" width="24.1001935686384" customWidth="1"/>
-    <col min="6" max="6" width="20.4001094273158" customWidth="1"/>
-    <col min="7" max="7" width="21.2969948904855" customWidth="1"/>
+    <col min="6" max="6" width="19.1202545166016" customWidth="1"/>
+    <col min="7" max="7" width="26.4900752476283" customWidth="1"/>
+    <col min="8" max="8" width="31.6831556047712" customWidth="1"/>
+    <col min="9" max="9" width="19.1202545166016" customWidth="1"/>
+    <col min="10" max="10" width="27.4967716761998" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4">
@@ -774,281 +1107,398 @@
       <c r="G4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
         <v>10001008</v>
       </c>
-      <c r="B8" s="0">
-        <v>493</v>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>72</v>
+        <v>112</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
         <v>10001009</v>
       </c>
-      <c r="B9" s="0">
-        <v>781</v>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>77</v>
+        <v>120</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>10001010</v>
       </c>
-      <c r="B10" s="0">
-        <v>708</v>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>82</v>
+        <v>128</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
         <v>10001011</v>
       </c>
-      <c r="B11" s="0">
-        <v>41</v>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>87</v>
+        <v>136</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
         <v>10001012</v>
       </c>
-      <c r="B12" s="0">
-        <v>564</v>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
         <v>10001013</v>
       </c>
-      <c r="B13" s="0">
-        <v>165</v>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>97</v>
+        <v>152</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
         <v>10001014</v>
       </c>
-      <c r="B14" s="0">
-        <v>253</v>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>102</v>
+        <v>160</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
         <v>10001015</v>
       </c>
-      <c r="B15" s="0">
-        <v>445</v>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>107</v>
+        <v>168</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
         <v>10001016</v>
       </c>
-      <c r="B16" s="0">
-        <v>696</v>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>112</v>
+        <v>176</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
         <v>10001017</v>
       </c>
-      <c r="B17" s="0">
-        <v>586</v>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>117</v>
+        <v>184</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1069,7 +1519,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
